--- a/Master Thesis/Assets/xml/Fragebogendaten Probanden anonymisiert.xlsx
+++ b/Master Thesis/Assets/xml/Fragebogendaten Probanden anonymisiert.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\nikolaiglaab\Master Thesis\Assets\xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01A3DEA2-3A69-4AE7-8167-BD3C746EA34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75677DF4-30BC-44FB-8375-73EC157B602C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="135" windowWidth="29040" windowHeight="15840" xr2:uid="{3B85288D-72A5-4ABA-9C35-9A1EB5735793}"/>
   </bookViews>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5F2F37-38FB-46CC-9BCF-A20D55BEB90E}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
@@ -1033,6 +1033,24 @@
         <v>4</v>
       </c>
     </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D17">
+        <f>AVERAGE(D2:D16)</f>
+        <v>27.6</v>
+      </c>
+      <c r="H17">
+        <f>AVERAGE(H2:H16)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:J17" si="0">AVERAGE(I2:I16)</f>
+        <v>2.0666666666666669</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>2.8666666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
